--- a/data/trans_dic/IQ19B_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IQ19B_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -579,12 +579,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>92,94; 100</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>90,95; 100</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>92,94; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>98,97; 100</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>99,03; 100</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>98,97; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -679,12 +679,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>97,05; 100</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>97,38; 100</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>97,05; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>99,31; 100</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>99,34; 100</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>99,31; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
